--- a/source/records/Accent Validation Data (1).xlsx
+++ b/source/records/Accent Validation Data (1).xlsx
@@ -1644,7 +1644,7 @@
     <numFmt numFmtId="164" formatCode="m/d/yy h:mm Am/Pm"/>
     <numFmt numFmtId="165" formatCode="m/d/yy h:mm tt"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1667,19 +1667,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1812,7 +1806,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="45">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1890,7 +1884,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1940,19 +1937,7 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="22" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2336,248 +2321,248 @@
     <col min="4" max="4" style="25" width="18.576428571428572" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="4" width="17.433571428571426" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="4" width="33.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="40" width="107.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="41" width="107.29071428571429" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="4" width="32.005" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="4" width="67.57642857142856" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="4" width="15.719285714285713" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="4" width="20.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="40" width="84.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="41" width="84.29071428571429" customWidth="1" bestFit="1"/>
     <col min="13" max="13" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>367</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="29" t="s">
         <v>368</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="30" t="s">
         <v>513</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="42" t="s">
         <v>514</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="30" t="s">
         <v>515</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="L1" s="32" t="s">
         <v>516</v>
       </c>
-      <c r="M1" s="42" t="s">
+      <c r="M1" s="43" t="s">
         <v>24</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="43">
+      <c r="A2" s="7">
         <v>158062039</v>
       </c>
-      <c r="B2" s="43">
+      <c r="B2" s="7">
         <v>250225</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="8" t="s">
         <v>517</v>
       </c>
-      <c r="D2" s="45">
+      <c r="D2" s="9">
         <v>45200.72275462963</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" s="46" t="s">
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="10" t="s">
         <v>519</v>
       </c>
-      <c r="M2" s="43">
+      <c r="M2" s="7">
         <v>2696962</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="43">
+      <c r="A3" s="7">
         <v>158635819</v>
       </c>
-      <c r="B3" s="43">
+      <c r="B3" s="7">
         <v>60252</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="8" t="s">
         <v>520</v>
       </c>
-      <c r="D3" s="45">
+      <c r="D3" s="9">
         <v>45202.460856481484</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="8" t="s">
         <v>521</v>
       </c>
-      <c r="F3" s="44"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" s="46" t="s">
+      <c r="F3" s="8"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="10" t="s">
         <v>522</v>
       </c>
-      <c r="M3" s="43">
+      <c r="M3" s="7">
         <v>2699651</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="43">
+      <c r="A4" s="7">
         <v>159830825</v>
       </c>
-      <c r="B4" s="43">
+      <c r="B4" s="7">
         <v>67516</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="8" t="s">
         <v>523</v>
       </c>
-      <c r="D4" s="45">
+      <c r="D4" s="9">
         <v>45205.9002662037</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="8" t="s">
         <v>524</v>
       </c>
-      <c r="F4" s="44"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" s="46" t="s">
+      <c r="F4" s="8"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="10" t="s">
         <v>525</v>
       </c>
-      <c r="M4" s="43">
+      <c r="M4" s="7">
         <v>2702597</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="43">
+      <c r="A5" s="7">
         <f>VLOOKUP($A5,'[1]088'!$A$1:$W$129,16,0)</f>
       </c>
-      <c r="B5" s="43">
+      <c r="B5" s="7">
         <f>VLOOKUP($A5,'[1]088'!$A$1:$W$129,8,0)</f>
       </c>
-      <c r="C5" s="47">
+      <c r="C5" s="44">
         <f>VLOOKUP($A5,'[1]088'!$A$1:$W$129,9,0)</f>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="9">
         <f>VLOOKUP($A5,'[1]088'!$A$1:$W$129,3,0)</f>
         <v>25569.229166666668</v>
       </c>
-      <c r="E5" s="47">
+      <c r="E5" s="44">
         <f>VLOOKUP($A5,'[1]088'!$A$1:$W$129,15,0)</f>
       </c>
-      <c r="F5" s="44"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="L5" s="46" t="s">
+      <c r="F5" s="8"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="10" t="s">
         <v>526</v>
       </c>
-      <c r="M5" s="43">
+      <c r="M5" s="7">
         <v>2756599</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="43">
+      <c r="A6" s="7">
         <v>168670930</v>
       </c>
-      <c r="B6" s="43">
+      <c r="B6" s="7">
         <v>616399</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="8" t="s">
         <v>527</v>
       </c>
-      <c r="D6" s="45">
+      <c r="D6" s="9">
         <v>45234.58391203704</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="44" t="s">
+      <c r="F6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="46" t="s">
+      <c r="G6" s="10" t="s">
         <v>528</v>
       </c>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="L6" s="46" t="s">
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="10" t="s">
         <v>529</v>
       </c>
-      <c r="M6" s="43">
+      <c r="M6" s="7">
         <v>2756010</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="43">
+      <c r="A7" s="7">
         <v>170978833</v>
       </c>
-      <c r="B7" s="43">
+      <c r="B7" s="7">
         <v>614906</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="8" t="s">
         <v>530</v>
       </c>
-      <c r="D7" s="45">
+      <c r="D7" s="9">
         <v>45242.64258101852</v>
       </c>
-      <c r="E7" s="44" t="s">
+      <c r="E7" s="8" t="s">
         <v>531</v>
       </c>
-      <c r="F7" s="44"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7" s="46" t="s">
+      <c r="F7" s="8"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="10" t="s">
         <v>532</v>
       </c>
-      <c r="M7" s="43">
+      <c r="M7" s="7">
         <v>2764921</v>
       </c>
     </row>
@@ -2603,61 +2588,61 @@
     <col min="1" max="1" style="24" width="20.005" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="24" width="13.43357142857143" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="4" width="41.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="39" width="17.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="40" width="17.433571428571426" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="4" width="20.005" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="4" width="33.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="40" width="65.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="41" width="65.005" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="4" width="33.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="40" width="56.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="41" width="56.14785714285715" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="4" width="37.005" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="40" width="43.005" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="40" width="58.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="41" width="43.005" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="41" width="58.43357142857143" customWidth="1" bestFit="1"/>
     <col min="13" max="13" style="24" width="18.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>367</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="29" t="s">
         <v>368</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="30" t="s">
         <v>369</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="30" t="s">
         <v>370</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="K1" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="L1" s="32" t="s">
         <v>371</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="M1" s="29" t="s">
         <v>24</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="32">
+      <c r="A2" s="33">
         <v>158500611</v>
       </c>
       <c r="B2" s="7">
@@ -2666,7 +2651,7 @@
       <c r="C2" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="D2" s="33">
+      <c r="D2" s="34">
         <v>45201.84505787037</v>
       </c>
       <c r="E2" s="8" t="s">
@@ -2694,7 +2679,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="32">
+      <c r="A3" s="33">
         <v>158396509</v>
       </c>
       <c r="B3" s="7">
@@ -2703,7 +2688,7 @@
       <c r="C3" s="8" t="s">
         <v>377</v>
       </c>
-      <c r="D3" s="33">
+      <c r="D3" s="34">
         <v>45201.65935185185</v>
       </c>
       <c r="E3" s="8" t="s">
@@ -2727,7 +2712,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="32">
+      <c r="A4" s="33">
         <v>159775973</v>
       </c>
       <c r="B4" s="7">
@@ -2736,7 +2721,7 @@
       <c r="C4" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="D4" s="33">
+      <c r="D4" s="34">
         <v>45205.77501157407</v>
       </c>
       <c r="E4" s="8" t="s">
@@ -2756,7 +2741,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="32">
+      <c r="A5" s="33">
         <v>159949734</v>
       </c>
       <c r="B5" s="7">
@@ -2765,7 +2750,7 @@
       <c r="C5" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="D5" s="33">
+      <c r="D5" s="34">
         <v>45206.51023148148</v>
       </c>
       <c r="E5" s="8" t="s">
@@ -2789,7 +2774,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="32">
+      <c r="A6" s="33">
         <v>163816207</v>
       </c>
       <c r="B6" s="7">
@@ -2798,7 +2783,7 @@
       <c r="C6" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="D6" s="33">
+      <c r="D6" s="34">
         <v>45217.95949074074</v>
       </c>
       <c r="E6" s="8" t="s">
@@ -2818,7 +2803,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="32">
+      <c r="A7" s="33">
         <v>170326428</v>
       </c>
       <c r="B7" s="7">
@@ -2827,7 +2812,7 @@
       <c r="C7" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="D7" s="33">
+      <c r="D7" s="34">
         <v>45240.41931712963</v>
       </c>
       <c r="E7" s="8" t="s">
@@ -2847,7 +2832,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="32">
+      <c r="A8" s="33">
         <v>160890780</v>
       </c>
       <c r="B8" s="7">
@@ -2856,7 +2841,7 @@
       <c r="C8" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="D8" s="33">
+      <c r="D8" s="34">
         <v>45209.44274305556</v>
       </c>
       <c r="E8" s="8" t="s">
@@ -2880,7 +2865,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="32">
+      <c r="A9" s="33">
         <v>164348693</v>
       </c>
       <c r="B9" s="7">
@@ -2889,7 +2874,7 @@
       <c r="C9" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="33">
+      <c r="D9" s="34">
         <v>45219.76459490741</v>
       </c>
       <c r="E9" s="8" t="s">
@@ -2909,7 +2894,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="32">
+      <c r="A10" s="33">
         <v>164808921</v>
       </c>
       <c r="B10" s="7">
@@ -2918,7 +2903,7 @@
       <c r="C10" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="D10" s="33">
+      <c r="D10" s="34">
         <v>45221.42836805555</v>
       </c>
       <c r="E10" s="8" t="s">
@@ -2938,7 +2923,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="32">
+      <c r="A11" s="33">
         <v>165986040</v>
       </c>
       <c r="B11" s="7">
@@ -2947,7 +2932,7 @@
       <c r="C11" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="D11" s="33">
+      <c r="D11" s="34">
         <v>45224.6983912037</v>
       </c>
       <c r="E11" s="8" t="s">
@@ -2967,7 +2952,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="32">
+      <c r="A12" s="33">
         <v>166893014</v>
       </c>
       <c r="B12" s="7">
@@ -2976,7 +2961,7 @@
       <c r="C12" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="D12" s="33">
+      <c r="D12" s="34">
         <v>45227.74283564815</v>
       </c>
       <c r="E12" s="8" t="s">
@@ -2996,7 +2981,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="32">
+      <c r="A13" s="33">
         <v>162515750</v>
       </c>
       <c r="B13" s="7">
@@ -3005,7 +2990,7 @@
       <c r="C13" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="D13" s="33">
+      <c r="D13" s="34">
         <v>45214.49728009259</v>
       </c>
       <c r="E13" s="8" t="s">
@@ -3029,7 +3014,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="32">
+      <c r="A14" s="33">
         <v>162740814</v>
       </c>
       <c r="B14" s="7">
@@ -3038,7 +3023,7 @@
       <c r="C14" s="8" t="s">
         <v>408</v>
       </c>
-      <c r="D14" s="33">
+      <c r="D14" s="34">
         <v>45214.88078703704</v>
       </c>
       <c r="E14" s="8" t="s">
@@ -3058,7 +3043,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="32">
+      <c r="A15" s="33">
         <v>164139503</v>
       </c>
       <c r="B15" s="7">
@@ -3067,7 +3052,7 @@
       <c r="C15" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="D15" s="33">
+      <c r="D15" s="34">
         <v>45218.93454861111</v>
       </c>
       <c r="E15" s="8" t="s">
@@ -3095,7 +3080,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="32">
+      <c r="A16" s="33">
         <v>167193308</v>
       </c>
       <c r="B16" s="7">
@@ -3104,7 +3089,7 @@
       <c r="C16" s="8" t="s">
         <v>415</v>
       </c>
-      <c r="D16" s="33">
+      <c r="D16" s="34">
         <v>45228.7746875</v>
       </c>
       <c r="E16" s="8" t="s">
@@ -3124,7 +3109,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="32">
+      <c r="A17" s="33">
         <v>167289677</v>
       </c>
       <c r="B17" s="7">
@@ -3133,7 +3118,7 @@
       <c r="C17" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="D17" s="33">
+      <c r="D17" s="34">
         <v>45229.11177083333</v>
       </c>
       <c r="E17" s="8" t="s">
@@ -3161,7 +3146,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="32">
+      <c r="A18" s="33">
         <v>167147932</v>
       </c>
       <c r="B18" s="7">
@@ -3170,7 +3155,7 @@
       <c r="C18" s="8" t="s">
         <v>422</v>
       </c>
-      <c r="D18" s="33">
+      <c r="D18" s="34">
         <v>45228.678773148145</v>
       </c>
       <c r="E18" s="8" t="s">
@@ -3198,7 +3183,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="32">
+      <c r="A19" s="33">
         <v>169123171</v>
       </c>
       <c r="B19" s="7">
@@ -3207,7 +3192,7 @@
       <c r="C19" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="D19" s="33">
+      <c r="D19" s="34">
         <v>45236.44332175926</v>
       </c>
       <c r="E19" s="8" t="s">
@@ -3231,7 +3216,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="32">
+      <c r="A20" s="33">
         <v>168665045</v>
       </c>
       <c r="B20" s="7">
@@ -3240,7 +3225,7 @@
       <c r="C20" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="D20" s="33">
+      <c r="D20" s="34">
         <v>45234.57263888889</v>
       </c>
       <c r="E20" s="8" t="s">
@@ -3260,7 +3245,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="32">
+      <c r="A21" s="33">
         <v>167571821</v>
       </c>
       <c r="B21" s="7">
@@ -3269,7 +3254,7 @@
       <c r="C21" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="D21" s="33">
+      <c r="D21" s="34">
         <v>45230.20581018519</v>
       </c>
       <c r="E21" s="8" t="s">
@@ -3289,7 +3274,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="32">
+      <c r="A22" s="33">
         <v>167508555</v>
       </c>
       <c r="B22" s="7">
@@ -3298,7 +3283,7 @@
       <c r="C22" s="8" t="s">
         <v>436</v>
       </c>
-      <c r="D22" s="33">
+      <c r="D22" s="34">
         <v>45229.84936342593</v>
       </c>
       <c r="E22" s="8" t="s">
@@ -3322,7 +3307,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="32">
+      <c r="A23" s="33">
         <v>167435977</v>
       </c>
       <c r="B23" s="7">
@@ -3331,7 +3316,7 @@
       <c r="C23" s="8" t="s">
         <v>439</v>
       </c>
-      <c r="D23" s="33">
+      <c r="D23" s="34">
         <v>45229.683854166666</v>
       </c>
       <c r="E23" s="8" t="s">
@@ -3355,7 +3340,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="32">
+      <c r="A24" s="33">
         <v>164515546</v>
       </c>
       <c r="B24" s="7">
@@ -3364,7 +3349,7 @@
       <c r="C24" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="D24" s="33">
+      <c r="D24" s="34">
         <v>45220.50518518518</v>
       </c>
       <c r="E24" s="8" t="s">
@@ -3388,7 +3373,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="32">
+      <c r="A25" s="33">
         <v>163575193</v>
       </c>
       <c r="B25" s="7">
@@ -3397,7 +3382,7 @@
       <c r="C25" s="8" t="s">
         <v>446</v>
       </c>
-      <c r="D25" s="33">
+      <c r="D25" s="34">
         <v>45217.501493055555</v>
       </c>
       <c r="E25" s="8" t="s">
@@ -3421,7 +3406,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="32">
+      <c r="A26" s="33">
         <v>163504673</v>
       </c>
       <c r="B26" s="7">
@@ -3430,7 +3415,7 @@
       <c r="C26" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="D26" s="33">
+      <c r="D26" s="34">
         <v>45217.057534722226</v>
       </c>
       <c r="E26" s="8" t="s">
@@ -3458,7 +3443,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="32">
+      <c r="A27" s="33">
         <v>164066742</v>
       </c>
       <c r="B27" s="7">
@@ -3467,7 +3452,7 @@
       <c r="C27" s="8" t="s">
         <v>453</v>
       </c>
-      <c r="D27" s="33">
+      <c r="D27" s="34">
         <v>45218.772152777776</v>
       </c>
       <c r="E27" s="8" t="s">
@@ -3491,7 +3476,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="32">
+      <c r="A28" s="33">
         <v>158177698</v>
       </c>
       <c r="B28" s="7">
@@ -3500,7 +3485,7 @@
       <c r="C28" s="8" t="s">
         <v>458</v>
       </c>
-      <c r="D28" s="33">
+      <c r="D28" s="34">
         <v>45200.92230324074</v>
       </c>
       <c r="E28" s="8" t="s">
@@ -3520,7 +3505,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="32">
+      <c r="A29" s="33">
         <v>158092272</v>
       </c>
       <c r="B29" s="7">
@@ -3529,7 +3514,7 @@
       <c r="C29" s="8" t="s">
         <v>461</v>
       </c>
-      <c r="D29" s="33">
+      <c r="D29" s="34">
         <v>45200.76689814815</v>
       </c>
       <c r="E29" s="8" t="s">
@@ -3549,7 +3534,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="32">
+      <c r="A30" s="33">
         <v>158325721</v>
       </c>
       <c r="B30" s="7">
@@ -3558,7 +3543,7 @@
       <c r="C30" s="8" t="s">
         <v>464</v>
       </c>
-      <c r="D30" s="33">
+      <c r="D30" s="34">
         <v>45201.56317129629</v>
       </c>
       <c r="E30" s="8" t="s">
@@ -3582,7 +3567,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="32">
+      <c r="A31" s="33">
         <v>158392033</v>
       </c>
       <c r="B31" s="7">
@@ -3591,7 +3576,7 @@
       <c r="C31" s="8" t="s">
         <v>468</v>
       </c>
-      <c r="D31" s="33">
+      <c r="D31" s="34">
         <v>45201.65802083333</v>
       </c>
       <c r="E31" s="8" t="s">
@@ -3611,7 +3596,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="32">
+      <c r="A32" s="33">
         <v>158824110</v>
       </c>
       <c r="B32" s="7">
@@ -3620,7 +3605,7 @@
       <c r="C32" s="8" t="s">
         <v>471</v>
       </c>
-      <c r="D32" s="33">
+      <c r="D32" s="34">
         <v>45202.79143518519</v>
       </c>
       <c r="E32" s="8" t="s">
@@ -3644,7 +3629,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="32">
+      <c r="A33" s="33">
         <v>159501535</v>
       </c>
       <c r="B33" s="7">
@@ -3653,7 +3638,7 @@
       <c r="C33" s="8" t="s">
         <v>475</v>
       </c>
-      <c r="D33" s="33">
+      <c r="D33" s="34">
         <v>45204.79414351852</v>
       </c>
       <c r="E33" s="8" t="s">
@@ -3677,7 +3662,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="32">
+      <c r="A34" s="33">
         <v>160131922</v>
       </c>
       <c r="B34" s="7">
@@ -3686,7 +3671,7 @@
       <c r="C34" s="8" t="s">
         <v>478</v>
       </c>
-      <c r="D34" s="33">
+      <c r="D34" s="34">
         <v>45206.84334490741</v>
       </c>
       <c r="E34" s="8" t="s">
@@ -3710,7 +3695,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="32">
+      <c r="A35" s="33">
         <v>165484128</v>
       </c>
       <c r="B35" s="7">
@@ -3719,7 +3704,7 @@
       <c r="C35" s="8" t="s">
         <v>481</v>
       </c>
-      <c r="D35" s="33">
+      <c r="D35" s="34">
         <v>45223.385416666664</v>
       </c>
       <c r="E35" s="8" t="s">
@@ -3743,7 +3728,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="32">
+      <c r="A36" s="33">
         <v>168660717</v>
       </c>
       <c r="B36" s="7">
@@ -3752,7 +3737,7 @@
       <c r="C36" s="8" t="s">
         <v>485</v>
       </c>
-      <c r="D36" s="33">
+      <c r="D36" s="34">
         <v>45234.55861111111</v>
       </c>
       <c r="E36" s="8" t="s">
@@ -3772,7 +3757,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="32">
+      <c r="A37" s="33">
         <v>170392858</v>
       </c>
       <c r="B37" s="7">
@@ -3781,7 +3766,7 @@
       <c r="C37" s="8" t="s">
         <v>488</v>
       </c>
-      <c r="D37" s="33">
+      <c r="D37" s="34">
         <v>45240.62064814815</v>
       </c>
       <c r="E37" s="8" t="s">
@@ -3801,7 +3786,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="32">
+      <c r="A38" s="33">
         <v>171064917</v>
       </c>
       <c r="B38" s="7">
@@ -3810,7 +3795,7 @@
       <c r="C38" s="8" t="s">
         <v>491</v>
       </c>
-      <c r="D38" s="33">
+      <c r="D38" s="34">
         <v>45242.812418981484</v>
       </c>
       <c r="E38" s="8" t="s">
@@ -3830,7 +3815,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="32">
+      <c r="A39" s="33">
         <v>160374505</v>
       </c>
       <c r="B39" s="7">
@@ -3839,7 +3824,7 @@
       <c r="C39" s="8" t="s">
         <v>494</v>
       </c>
-      <c r="D39" s="33">
+      <c r="D39" s="34">
         <v>45207.673842592594</v>
       </c>
       <c r="E39" s="8" t="s">
@@ -3859,7 +3844,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="32">
+      <c r="A40" s="33">
         <v>161436608</v>
       </c>
       <c r="B40" s="7">
@@ -3868,7 +3853,7 @@
       <c r="C40" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="D40" s="33">
+      <c r="D40" s="34">
         <v>45210.91118055556</v>
       </c>
       <c r="E40" s="8" t="s">
@@ -3888,7 +3873,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="32">
+      <c r="A41" s="33">
         <v>170098307</v>
       </c>
       <c r="B41" s="7">
@@ -3897,7 +3882,7 @@
       <c r="C41" s="8" t="s">
         <v>499</v>
       </c>
-      <c r="D41" s="33">
+      <c r="D41" s="34">
         <v>45239.5646412037</v>
       </c>
       <c r="E41" s="8" t="s">
@@ -3917,7 +3902,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="32">
+      <c r="A42" s="33">
         <v>159467724</v>
       </c>
       <c r="B42" s="7">
@@ -3926,7 +3911,7 @@
       <c r="C42" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="D42" s="33">
+      <c r="D42" s="34">
         <v>45204.72971064815</v>
       </c>
       <c r="E42" s="8" t="s">
@@ -3950,68 +3935,68 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="34">
+      <c r="A43" s="35">
         <v>168134424</v>
       </c>
-      <c r="B43" s="35">
+      <c r="B43" s="36">
         <v>275794</v>
       </c>
-      <c r="C43" s="36" t="s">
+      <c r="C43" s="37" t="s">
         <v>504</v>
       </c>
-      <c r="D43" s="37">
+      <c r="D43" s="38">
         <v>45232.401238425926</v>
       </c>
-      <c r="E43" s="36" t="s">
+      <c r="E43" s="37" t="s">
         <v>505</v>
       </c>
-      <c r="F43" s="36"/>
-      <c r="G43" s="38"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="39"/>
       <c r="H43" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I43" s="38" t="s">
+      <c r="I43" s="39" t="s">
         <v>506</v>
       </c>
-      <c r="J43" s="36"/>
-      <c r="K43" s="38"/>
-      <c r="L43" s="38" t="s">
+      <c r="J43" s="37"/>
+      <c r="K43" s="39"/>
+      <c r="L43" s="39" t="s">
         <v>507</v>
       </c>
-      <c r="M43" s="35">
+      <c r="M43" s="36">
         <v>2754235</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="34">
+      <c r="A44" s="35">
         <v>170442589</v>
       </c>
-      <c r="B44" s="35">
+      <c r="B44" s="36">
         <v>214196</v>
       </c>
-      <c r="C44" s="36" t="s">
+      <c r="C44" s="37" t="s">
         <v>508</v>
       </c>
-      <c r="D44" s="37">
+      <c r="D44" s="38">
         <v>45240.73090277778</v>
       </c>
-      <c r="E44" s="36" t="s">
+      <c r="E44" s="37" t="s">
         <v>509</v>
       </c>
-      <c r="F44" s="38" t="s">
+      <c r="F44" s="39" t="s">
         <v>510</v>
       </c>
-      <c r="G44" s="38" t="s">
+      <c r="G44" s="39" t="s">
         <v>511</v>
       </c>
-      <c r="H44" s="36"/>
-      <c r="I44" s="38"/>
-      <c r="J44" s="36"/>
-      <c r="K44" s="38"/>
-      <c r="L44" s="38" t="s">
+      <c r="H44" s="37"/>
+      <c r="I44" s="39"/>
+      <c r="J44" s="37"/>
+      <c r="K44" s="39"/>
+      <c r="L44" s="39" t="s">
         <v>512</v>
       </c>
-      <c r="M44" s="35">
+      <c r="M44" s="36">
         <v>2762888</v>
       </c>
     </row>
@@ -4040,17 +4025,17 @@
     <col min="4" max="4" style="25" width="17.433571428571426" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="4" width="20.005" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="24" width="18.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="15.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="5" width="39.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="26" width="15.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="26" width="39.57642857142857" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="24" width="34.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="26" width="54.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="27" width="54.14785714285715" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="23" width="57.005" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="26" width="53.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="5" width="36.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="26" width="30.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="27" width="53.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="26" width="36.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="27" width="30.719285714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
@@ -4094,7 +4079,7 @@
         <v>31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="11">
         <v>158308797</v>
       </c>
@@ -4126,7 +4111,7 @@
       <c r="M2" s="13"/>
       <c r="N2" s="15"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="11">
         <v>158836735</v>
       </c>
@@ -4158,7 +4143,7 @@
       <c r="M3" s="13"/>
       <c r="N3" s="15"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="11">
         <v>159385897</v>
       </c>
@@ -4190,7 +4175,7 @@
       <c r="M4" s="13"/>
       <c r="N4" s="15"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="11">
         <v>159831412</v>
       </c>
@@ -4222,7 +4207,7 @@
       <c r="M5" s="13"/>
       <c r="N5" s="15"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="45.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="46.5">
       <c r="A6" s="11">
         <v>160260415</v>
       </c>
@@ -4262,7 +4247,7 @@
       <c r="M6" s="13"/>
       <c r="N6" s="15"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="32.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="33">
       <c r="A7" s="11">
         <v>160675031</v>
       </c>
@@ -4298,7 +4283,7 @@
         <v>52</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="11">
         <v>160588653</v>
       </c>
@@ -4330,7 +4315,7 @@
       <c r="M8" s="13"/>
       <c r="N8" s="15"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="58.5">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="60">
       <c r="A9" s="11">
         <v>161025753</v>
       </c>
@@ -4366,7 +4351,7 @@
       <c r="M9" s="13"/>
       <c r="N9" s="15"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="84.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="87">
       <c r="A10" s="11">
         <v>161316483</v>
       </c>
@@ -4402,7 +4387,7 @@
       <c r="M10" s="13"/>
       <c r="N10" s="15"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="11">
         <v>161560999</v>
       </c>
@@ -4434,7 +4419,7 @@
       <c r="M11" s="13"/>
       <c r="N11" s="15"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="11">
         <v>162562761</v>
       </c>
@@ -4470,7 +4455,7 @@
       <c r="M12" s="13"/>
       <c r="N12" s="15"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="11">
         <v>162801837</v>
       </c>
@@ -4502,7 +4487,7 @@
       <c r="M13" s="13"/>
       <c r="N13" s="15"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="11">
         <v>163067131</v>
       </c>
@@ -4534,7 +4519,7 @@
       <c r="M14" s="13"/>
       <c r="N14" s="15"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="11">
         <v>163433020</v>
       </c>
@@ -4566,7 +4551,7 @@
       <c r="M15" s="13"/>
       <c r="N15" s="15"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="11">
         <v>163442594</v>
       </c>

--- a/source/records/Accent Validation Data (1).xlsx
+++ b/source/records/Accent Validation Data (1).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="527">
   <si>
     <t>C</t>
   </si>
@@ -88,7 +88,7 @@
     <t>Agent name</t>
   </si>
   <si>
-    <t xml:space="preserve">Call Date </t>
+    <t>Call Date</t>
   </si>
   <si>
     <t>Customer Name</t>
@@ -1128,18 +1128,6 @@
   </si>
   <si>
     <t>CCA didn't Troubleshooting related to WE APP  - CCA Didn't Troubleshooting as per Customer input @2:47 he has problem in WE APP so CCA should do troubleshot with Customer to solved the problem and CCA should follow steps in wiki if not solved will Create TT .</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Call id </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agent id </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agent me </t>
-  </si>
-  <si>
-    <t>Customer me</t>
   </si>
   <si>
     <t>Comment related to Comlaint</t>
@@ -1573,12 +1561,6 @@
   </si>
   <si>
     <t>CST complaining from Repeated Outage @ 0:39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agent name </t>
-  </si>
-  <si>
-    <t>Call Date</t>
   </si>
   <si>
     <t>Customer Accent</t>
@@ -1961,7 +1943,7 @@
     <tableColumn name="Call id" id="1"/>
     <tableColumn name="Agent id" id="2"/>
     <tableColumn name="Agent name" id="3"/>
-    <tableColumn name="Call Date " id="4"/>
+    <tableColumn name="Call Date" id="4"/>
     <tableColumn name="Customer Name" id="5"/>
     <tableColumn name="Sheet Number" id="6"/>
     <tableColumn name="Normal Call" id="7"/>
@@ -1981,11 +1963,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:M44" displayName="Table5" name="Table5" id="2" totalsRowShown="0">
   <autoFilter ref="A1:M44"/>
   <tableColumns count="13">
-    <tableColumn name="Call id " id="1"/>
-    <tableColumn name="Agent id " id="2"/>
-    <tableColumn name="Agent me " id="3"/>
-    <tableColumn name="Call Date " id="4"/>
-    <tableColumn name="Customer me" id="5"/>
+    <tableColumn name="Call id" id="1"/>
+    <tableColumn name="Agent id" id="2"/>
+    <tableColumn name="Agent name" id="3"/>
+    <tableColumn name="Call Date" id="4"/>
+    <tableColumn name="Customer Name" id="5"/>
     <tableColumn name="Critical to customer" id="6"/>
     <tableColumn name="Comment" id="7"/>
     <tableColumn name="Critical to business" id="8"/>
@@ -2000,22 +1982,21 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:M7" displayName="Table13" name="Table13" id="3" totalsRowShown="0">
-  <autoFilter ref="A1:M7"/>
-  <tableColumns count="13">
-    <tableColumn name="Call id " id="1"/>
-    <tableColumn name="Agent id " id="2"/>
-    <tableColumn name="Agent name " id="3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L7" displayName="Table13" name="Table13" id="3" totalsRowShown="0">
+  <autoFilter ref="A1:L7"/>
+  <tableColumns count="12">
+    <tableColumn name="Call id" id="1"/>
+    <tableColumn name="Agent id" id="2"/>
+    <tableColumn name="Agent name" id="3"/>
     <tableColumn name="Call Date" id="4"/>
     <tableColumn name="Customer Name" id="5"/>
     <tableColumn name="Critical to customer" id="6"/>
     <tableColumn name="Comment" id="7"/>
     <tableColumn name="Critical to business" id="8"/>
-    <tableColumn name="Comment " id="9"/>
-    <tableColumn name="NC" id="10"/>
-    <tableColumn name="Customer Accent" id="11"/>
-    <tableColumn name="Comment related to Hitting" id="12"/>
-    <tableColumn name="Sheet Number" id="13"/>
+    <tableColumn name="NC" id="9"/>
+    <tableColumn name="Customer Accent" id="10"/>
+    <tableColumn name="Comment related to Hitting" id="11"/>
+    <tableColumn name="Sheet Number" id="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
 </table>
@@ -2309,7 +2290,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2323,25 +2304,24 @@
     <col min="6" max="6" style="4" width="33.005" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="41" width="107.29071428571429" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="4" width="32.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="4" width="67.57642857142856" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="4" width="15.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="4" width="20.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="41" width="84.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="4" width="15.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="4" width="20.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="41" width="84.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="28" t="s">
-        <v>367</v>
+        <v>19</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>368</v>
+        <v>20</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>513</v>
+        <v>21</v>
       </c>
       <c r="D1" s="42" t="s">
-        <v>514</v>
+        <v>22</v>
       </c>
       <c r="E1" s="30" t="s">
         <v>23</v>
@@ -2356,18 +2336,15 @@
         <v>29</v>
       </c>
       <c r="I1" s="30" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="J1" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="30" t="s">
-        <v>515</v>
-      </c>
-      <c r="L1" s="32" t="s">
-        <v>516</v>
-      </c>
-      <c r="M1" s="43" t="s">
+        <v>509</v>
+      </c>
+      <c r="K1" s="32" t="s">
+        <v>510</v>
+      </c>
+      <c r="L1" s="43" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2379,7 +2356,7 @@
         <v>250225</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="D2" s="9">
         <v>45200.72275462963</v>
@@ -2391,18 +2368,17 @@
         <v>9</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>519</v>
-      </c>
-      <c r="M2" s="7">
+      <c r="J2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="L2" s="7">
         <v>2696962</v>
       </c>
     </row>
@@ -2414,26 +2390,25 @@
         <v>60252</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="D3" s="9">
         <v>45202.460856481484</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="10"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>522</v>
-      </c>
-      <c r="M3" s="7">
+      <c r="J3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="L3" s="7">
         <v>2699651</v>
       </c>
     </row>
@@ -2445,26 +2420,25 @@
         <v>67516</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="D4" s="9">
         <v>45205.9002662037</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="10"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>525</v>
-      </c>
-      <c r="M4" s="7">
+      <c r="J4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="L4" s="7">
         <v>2702597</v>
       </c>
     </row>
@@ -2489,14 +2463,13 @@
       <c r="G5" s="10"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>526</v>
-      </c>
-      <c r="M5" s="7">
+      <c r="J5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>520</v>
+      </c>
+      <c r="L5" s="7">
         <v>2756599</v>
       </c>
     </row>
@@ -2508,7 +2481,7 @@
         <v>616399</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="D6" s="9">
         <v>45234.58391203704</v>
@@ -2520,18 +2493,17 @@
         <v>9</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="M6" s="7">
+      <c r="J6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="L6" s="7">
         <v>2756010</v>
       </c>
     </row>
@@ -2543,26 +2515,25 @@
         <v>614906</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="D7" s="9">
         <v>45242.64258101852</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="10"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>532</v>
-      </c>
-      <c r="M7" s="7">
+      <c r="J7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="L7" s="7">
         <v>2764921</v>
       </c>
     </row>
@@ -2602,19 +2573,19 @@
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="28" t="s">
-        <v>367</v>
+        <v>19</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>368</v>
+        <v>20</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>369</v>
+        <v>21</v>
       </c>
       <c r="D1" s="31" t="s">
         <v>22</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>370</v>
+        <v>23</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>27</v>
@@ -2635,13 +2606,13 @@
         <v>31</v>
       </c>
       <c r="L1" s="32" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M1" s="29" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="114">
       <c r="A2" s="33">
         <v>158500611</v>
       </c>
@@ -2649,36 +2620,36 @@
         <v>299464</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D2" s="34">
         <v>45201.84505787037</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>9</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>4</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="10"/>
       <c r="L2" s="10" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="M2" s="7">
         <v>2698663</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="33">
         <v>158396509</v>
       </c>
@@ -2686,7 +2657,7 @@
         <v>299937</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D3" s="34">
         <v>45201.65935185185</v>
@@ -2700,18 +2671,18 @@
         <v>4</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="10"/>
       <c r="L3" s="10" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="M3" s="7">
         <v>2698789</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="33">
         <v>159775973</v>
       </c>
@@ -2719,13 +2690,13 @@
         <v>219726</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D4" s="34">
         <v>45205.77501157407</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="10"/>
@@ -2734,13 +2705,13 @@
       <c r="J4" s="8"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="M4" s="7">
         <v>2702177</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="46.5">
       <c r="A5" s="33">
         <v>159949734</v>
       </c>
@@ -2748,7 +2719,7 @@
         <v>244092</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D5" s="34">
         <v>45206.51023148148</v>
@@ -2760,20 +2731,20 @@
         <v>9</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="10"/>
       <c r="J5" s="8"/>
       <c r="K5" s="10"/>
       <c r="L5" s="10" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="M5" s="7">
         <v>2703595</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="33">
       <c r="A6" s="33">
         <v>163816207</v>
       </c>
@@ -2781,13 +2752,13 @@
         <v>216125</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D6" s="34">
         <v>45217.95949074074</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="10"/>
@@ -2796,13 +2767,13 @@
       <c r="J6" s="8"/>
       <c r="K6" s="10"/>
       <c r="L6" s="10" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="M6" s="7">
         <v>2735750</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="33">
         <v>170326428</v>
       </c>
@@ -2810,7 +2781,7 @@
         <v>297384</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D7" s="34">
         <v>45240.41931712963</v>
@@ -2825,13 +2796,13 @@
       <c r="J7" s="8"/>
       <c r="K7" s="10"/>
       <c r="L7" s="10" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="M7" s="7">
         <v>2763264</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="46.5">
       <c r="A8" s="33">
         <v>160890780</v>
       </c>
@@ -2845,26 +2816,26 @@
         <v>45209.44274305556</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="10"/>
       <c r="J8" s="8"/>
       <c r="K8" s="10"/>
       <c r="L8" s="10" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="M8" s="7">
         <v>2707300</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="33">
         <v>164348693</v>
       </c>
@@ -2878,7 +2849,7 @@
         <v>45219.76459490741</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="10"/>
@@ -2887,13 +2858,13 @@
       <c r="J9" s="8"/>
       <c r="K9" s="10"/>
       <c r="L9" s="10" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="M9" s="7">
         <v>2738270</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="33">
         <v>164808921</v>
       </c>
@@ -2901,13 +2872,13 @@
         <v>279141</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D10" s="34">
         <v>45221.42836805555</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="10"/>
@@ -2916,13 +2887,13 @@
       <c r="J10" s="8"/>
       <c r="K10" s="10"/>
       <c r="L10" s="10" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="M10" s="7">
         <v>2741487</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="33">
         <v>165986040</v>
       </c>
@@ -2930,13 +2901,13 @@
         <v>280885</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D11" s="34">
         <v>45224.6983912037</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="10"/>
@@ -2945,13 +2916,13 @@
       <c r="J11" s="8"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="M11" s="7">
         <v>2745715</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="33">
       <c r="A12" s="33">
         <v>166893014</v>
       </c>
@@ -2965,7 +2936,7 @@
         <v>45227.74283564815</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="10"/>
@@ -2974,13 +2945,13 @@
       <c r="J12" s="8"/>
       <c r="K12" s="10"/>
       <c r="L12" s="10" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="M12" s="7">
         <v>2751596</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="60">
       <c r="A13" s="33">
         <v>162515750</v>
       </c>
@@ -2988,7 +2959,7 @@
         <v>232679</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D13" s="34">
         <v>45214.49728009259</v>
@@ -3000,20 +2971,20 @@
         <v>11</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="10"/>
       <c r="J13" s="8"/>
       <c r="K13" s="10"/>
       <c r="L13" s="10" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="M13" s="7">
         <v>2750134</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="33">
         <v>162740814</v>
       </c>
@@ -3021,13 +2992,13 @@
         <v>291838</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D14" s="34">
         <v>45214.88078703704</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="10"/>
@@ -3036,13 +3007,13 @@
       <c r="J14" s="8"/>
       <c r="K14" s="10"/>
       <c r="L14" s="10" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="M14" s="7">
         <v>2731984</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="46.5">
       <c r="A15" s="33">
         <v>164139503</v>
       </c>
@@ -3050,7 +3021,7 @@
         <v>235979</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D15" s="34">
         <v>45218.93454861111</v>
@@ -3064,22 +3035,22 @@
         <v>4</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="J15" s="8" t="s">
         <v>5</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="M15" s="7">
         <v>2737259</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="60">
       <c r="A16" s="33">
         <v>167193308</v>
       </c>
@@ -3087,7 +3058,7 @@
         <v>233479</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D16" s="34">
         <v>45228.7746875</v>
@@ -3102,13 +3073,13 @@
       <c r="J16" s="8"/>
       <c r="K16" s="10"/>
       <c r="L16" s="10" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="M16" s="7">
         <v>2750171</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="33">
       <c r="A17" s="33">
         <v>167289677</v>
       </c>
@@ -3116,19 +3087,19 @@
         <v>280939</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D17" s="34">
         <v>45229.11177083333</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="10"/>
@@ -3136,16 +3107,16 @@
         <v>243</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="M17" s="7">
         <v>2751161</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="73.5">
       <c r="A18" s="33">
         <v>167147932</v>
       </c>
@@ -3153,36 +3124,36 @@
         <v>2385102</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D18" s="34">
         <v>45228.678773148145</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H18" s="8" t="s">
         <v>4</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="J18" s="8"/>
       <c r="K18" s="10"/>
       <c r="L18" s="10" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="M18" s="7">
         <v>2751781</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="33">
       <c r="A19" s="33">
         <v>169123171</v>
       </c>
@@ -3190,7 +3161,7 @@
         <v>220194</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D19" s="34">
         <v>45236.44332175926</v>
@@ -3202,20 +3173,20 @@
         <v>13</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="10"/>
       <c r="J19" s="8"/>
       <c r="K19" s="10"/>
       <c r="L19" s="10" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="M19" s="7">
         <v>2758610</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="33">
         <v>168665045</v>
       </c>
@@ -3223,13 +3194,13 @@
         <v>233905</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D20" s="34">
         <v>45234.57263888889</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="10"/>
@@ -3238,13 +3209,13 @@
       <c r="J20" s="8"/>
       <c r="K20" s="10"/>
       <c r="L20" s="10" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="M20" s="7">
         <v>2755303</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="33">
         <v>167571821</v>
       </c>
@@ -3252,13 +3223,13 @@
         <v>291681</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D21" s="34">
         <v>45230.20581018519</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="10"/>
@@ -3267,13 +3238,13 @@
       <c r="J21" s="8"/>
       <c r="K21" s="10"/>
       <c r="L21" s="10" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="M21" s="7">
         <v>2752630</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="33">
       <c r="A22" s="33">
         <v>167508555</v>
       </c>
@@ -3281,7 +3252,7 @@
         <v>126161</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D22" s="34">
         <v>45229.84936342593</v>
@@ -3293,20 +3264,20 @@
         <v>9</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="10"/>
       <c r="J22" s="8"/>
       <c r="K22" s="10"/>
       <c r="L22" s="10" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="M22" s="7">
         <v>2751193</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="46.5">
       <c r="A23" s="33">
         <v>167435977</v>
       </c>
@@ -3314,7 +3285,7 @@
         <v>258615</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D23" s="34">
         <v>45229.683854166666</v>
@@ -3328,12 +3299,12 @@
         <v>4</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="J23" s="8"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="M23" s="7">
         <v>2751166</v>
@@ -3347,13 +3318,13 @@
         <v>299683</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="D24" s="34">
         <v>45220.50518518518</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="10"/>
@@ -3361,12 +3332,12 @@
         <v>4</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="J24" s="8"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="M24" s="7">
         <v>2741272</v>
@@ -3380,7 +3351,7 @@
         <v>295066</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D25" s="34">
         <v>45217.501493055555</v>
@@ -3392,14 +3363,14 @@
         <v>13</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="H25" s="8"/>
       <c r="I25" s="10"/>
       <c r="J25" s="8"/>
       <c r="K25" s="10"/>
       <c r="L25" s="10" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="M25" s="7">
         <v>2736298</v>
@@ -3413,30 +3384,30 @@
         <v>256981</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="D26" s="34">
         <v>45217.057534722226</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="H26" s="8" t="s">
         <v>4</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="J26" s="8"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="M26" s="7">
         <v>2736748</v>
@@ -3450,26 +3421,26 @@
         <v>301225</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="D27" s="34">
         <v>45218.772152777776</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="10"/>
       <c r="H27" s="8"/>
       <c r="I27" s="10"/>
       <c r="J27" s="8" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="M27" s="7">
         <v>2737106</v>
@@ -3483,13 +3454,13 @@
         <v>251341</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D28" s="34">
         <v>45200.92230324074</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="10"/>
@@ -3498,7 +3469,7 @@
       <c r="J28" s="8"/>
       <c r="K28" s="10"/>
       <c r="L28" s="10" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="M28" s="7">
         <v>2697774</v>
@@ -3512,13 +3483,13 @@
         <v>286087</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D29" s="34">
         <v>45200.76689814815</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="10"/>
@@ -3527,7 +3498,7 @@
       <c r="J29" s="8"/>
       <c r="K29" s="10"/>
       <c r="L29" s="10" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="M29" s="7">
         <v>2697822</v>
@@ -3541,26 +3512,26 @@
         <v>296369</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D30" s="34">
         <v>45201.56317129629</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H30" s="8"/>
       <c r="I30" s="10"/>
       <c r="J30" s="8"/>
       <c r="K30" s="10"/>
       <c r="L30" s="10" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="M30" s="7">
         <v>2698591</v>
@@ -3574,13 +3545,13 @@
         <v>273121</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D31" s="34">
         <v>45201.65802083333</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="10"/>
@@ -3589,7 +3560,7 @@
       <c r="J31" s="8"/>
       <c r="K31" s="10"/>
       <c r="L31" s="10" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="M31" s="7">
         <v>2698598</v>
@@ -3603,26 +3574,26 @@
         <v>297688</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="D32" s="34">
         <v>45202.79143518519</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F32" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H32" s="8"/>
       <c r="I32" s="10"/>
       <c r="J32" s="8"/>
       <c r="K32" s="10"/>
       <c r="L32" s="10" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="M32" s="7">
         <v>2699292</v>
@@ -3636,7 +3607,7 @@
         <v>55945</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="D33" s="34">
         <v>45204.79414351852</v>
@@ -3650,12 +3621,12 @@
         <v>4</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="J33" s="8"/>
       <c r="K33" s="10"/>
       <c r="L33" s="10" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="M33" s="7">
         <v>2701738</v>
@@ -3669,7 +3640,7 @@
         <v>289335</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="D34" s="34">
         <v>45206.84334490741</v>
@@ -3683,12 +3654,12 @@
         <v>4</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="J34" s="8"/>
       <c r="K34" s="10"/>
       <c r="L34" s="10" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="M34" s="7">
         <v>2703002</v>
@@ -3702,26 +3673,26 @@
         <v>281015</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="D35" s="34">
         <v>45223.385416666664</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="F35" s="8" t="s">
         <v>9</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="H35" s="8"/>
       <c r="I35" s="10"/>
       <c r="J35" s="8"/>
       <c r="K35" s="10"/>
       <c r="L35" s="10" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="M35" s="7">
         <v>2742395</v>
@@ -3735,13 +3706,13 @@
         <v>178738</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D36" s="34">
         <v>45234.55861111111</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="10"/>
@@ -3750,7 +3721,7 @@
       <c r="J36" s="8"/>
       <c r="K36" s="10"/>
       <c r="L36" s="10" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="M36" s="7">
         <v>2755620</v>
@@ -3764,13 +3735,13 @@
         <v>187490</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D37" s="34">
         <v>45240.62064814815</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="10"/>
@@ -3779,7 +3750,7 @@
       <c r="J37" s="8"/>
       <c r="K37" s="10"/>
       <c r="L37" s="10" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="M37" s="7">
         <v>2763142</v>
@@ -3793,13 +3764,13 @@
         <v>241652</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="D38" s="34">
         <v>45242.812418981484</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="10"/>
@@ -3808,7 +3779,7 @@
       <c r="J38" s="8"/>
       <c r="K38" s="10"/>
       <c r="L38" s="10" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="M38" s="7">
         <v>2764441</v>
@@ -3822,13 +3793,13 @@
         <v>288837</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="D39" s="34">
         <v>45207.673842592594</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F39" s="8"/>
       <c r="G39" s="10"/>
@@ -3837,7 +3808,7 @@
       <c r="J39" s="8"/>
       <c r="K39" s="10"/>
       <c r="L39" s="10" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="M39" s="7">
         <v>2705191</v>
@@ -3851,7 +3822,7 @@
         <v>1051725</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="D40" s="34">
         <v>45210.91118055556</v>
@@ -3866,7 +3837,7 @@
       <c r="J40" s="8"/>
       <c r="K40" s="10"/>
       <c r="L40" s="10" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="M40" s="7">
         <v>2708068</v>
@@ -3880,7 +3851,7 @@
         <v>206496</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="D41" s="34">
         <v>45239.5646412037</v>
@@ -3895,7 +3866,7 @@
       <c r="J41" s="8"/>
       <c r="K41" s="10"/>
       <c r="L41" s="10" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="M41" s="7">
         <v>2761885</v>
@@ -3909,7 +3880,7 @@
         <v>219643</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D42" s="34">
         <v>45204.72971064815</v>
@@ -3923,12 +3894,12 @@
         <v>4</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="J42" s="8"/>
       <c r="K42" s="10"/>
       <c r="L42" s="10" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="M42" s="7">
         <v>2701590</v>
@@ -3942,13 +3913,13 @@
         <v>275794</v>
       </c>
       <c r="C43" s="37" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="D43" s="38">
         <v>45232.401238425926</v>
       </c>
       <c r="E43" s="37" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="F43" s="37"/>
       <c r="G43" s="39"/>
@@ -3956,12 +3927,12 @@
         <v>4</v>
       </c>
       <c r="I43" s="39" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="J43" s="37"/>
       <c r="K43" s="39"/>
       <c r="L43" s="39" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="M43" s="36">
         <v>2754235</v>
@@ -3975,26 +3946,26 @@
         <v>214196</v>
       </c>
       <c r="C44" s="37" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D44" s="38">
         <v>45240.73090277778</v>
       </c>
       <c r="E44" s="37" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="F44" s="39" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="G44" s="39" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="H44" s="37"/>
       <c r="I44" s="39"/>
       <c r="J44" s="37"/>
       <c r="K44" s="39"/>
       <c r="L44" s="39" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="M44" s="36">
         <v>2762888</v>

--- a/source/records/Accent Validation Data (1).xlsx
+++ b/source/records/Accent Validation Data (1).xlsx
@@ -4,11 +4,11 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Hitting the company "/>
-    <sheet r:id="rId2" sheetId="2" name="Complaint "/>
+    <sheet r:id="rId1" sheetId="1" name="Hitting the company"/>
+    <sheet r:id="rId2" sheetId="2" name="Complaint"/>
     <sheet r:id="rId3" sheetId="3" name="Normal Calls"/>
     <sheet r:id="rId4" sheetId="4" name="Sheet2"/>
   </sheets>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="527">
   <si>
     <t>C</t>
   </si>
@@ -88,7 +88,7 @@
     <t>Agent name</t>
   </si>
   <si>
-    <t xml:space="preserve">Call Date </t>
+    <t>Call Date</t>
   </si>
   <si>
     <t>Customer Name</t>
@@ -1128,18 +1128,6 @@
   </si>
   <si>
     <t>CCA didn't Troubleshooting related to WE APP  - CCA Didn't Troubleshooting as per Customer input @2:47 he has problem in WE APP so CCA should do troubleshot with Customer to solved the problem and CCA should follow steps in wiki if not solved will Create TT .</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Call id </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agent id </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agent me </t>
-  </si>
-  <si>
-    <t>Customer me</t>
   </si>
   <si>
     <t>Comment related to Comlaint</t>
@@ -1573,12 +1561,6 @@
   </si>
   <si>
     <t>CST complaining from Repeated Outage @ 0:39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agent name </t>
-  </si>
-  <si>
-    <t>Call Date</t>
   </si>
   <si>
     <t>Customer Accent</t>
@@ -1644,7 +1626,7 @@
     <numFmt numFmtId="164" formatCode="m/d/yy h:mm Am/Pm"/>
     <numFmt numFmtId="165" formatCode="m/d/yy h:mm tt"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1667,19 +1649,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1812,7 +1788,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="45">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1890,7 +1866,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1940,19 +1919,7 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="22" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1976,7 +1943,7 @@
     <tableColumn name="Call id" id="1"/>
     <tableColumn name="Agent id" id="2"/>
     <tableColumn name="Agent name" id="3"/>
-    <tableColumn name="Call Date " id="4"/>
+    <tableColumn name="Call Date" id="4"/>
     <tableColumn name="Customer Name" id="5"/>
     <tableColumn name="Sheet Number" id="6"/>
     <tableColumn name="Normal Call" id="7"/>
@@ -1996,11 +1963,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:M44" displayName="Table5" name="Table5" id="2" totalsRowShown="0">
   <autoFilter ref="A1:M44"/>
   <tableColumns count="13">
-    <tableColumn name="Call id " id="1"/>
-    <tableColumn name="Agent id " id="2"/>
-    <tableColumn name="Agent me " id="3"/>
-    <tableColumn name="Call Date " id="4"/>
-    <tableColumn name="Customer me" id="5"/>
+    <tableColumn name="Call id" id="1"/>
+    <tableColumn name="Agent id" id="2"/>
+    <tableColumn name="Agent name" id="3"/>
+    <tableColumn name="Call Date" id="4"/>
+    <tableColumn name="Customer Name" id="5"/>
     <tableColumn name="Critical to customer" id="6"/>
     <tableColumn name="Comment" id="7"/>
     <tableColumn name="Critical to business" id="8"/>
@@ -2015,22 +1982,21 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:M7" displayName="Table13" name="Table13" id="3" totalsRowShown="0">
-  <autoFilter ref="A1:M7"/>
-  <tableColumns count="13">
-    <tableColumn name="Call id " id="1"/>
-    <tableColumn name="Agent id " id="2"/>
-    <tableColumn name="Agent name " id="3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L7" displayName="Table13" name="Table13" id="3" totalsRowShown="0">
+  <autoFilter ref="A1:L7"/>
+  <tableColumns count="12">
+    <tableColumn name="Call id" id="1"/>
+    <tableColumn name="Agent id" id="2"/>
+    <tableColumn name="Agent name" id="3"/>
     <tableColumn name="Call Date" id="4"/>
     <tableColumn name="Customer Name" id="5"/>
     <tableColumn name="Critical to customer" id="6"/>
     <tableColumn name="Comment" id="7"/>
     <tableColumn name="Critical to business" id="8"/>
-    <tableColumn name="Comment " id="9"/>
-    <tableColumn name="NC" id="10"/>
-    <tableColumn name="Customer Accent" id="11"/>
-    <tableColumn name="Comment related to Hitting" id="12"/>
-    <tableColumn name="Sheet Number" id="13"/>
+    <tableColumn name="NC" id="9"/>
+    <tableColumn name="Customer Accent" id="10"/>
+    <tableColumn name="Comment related to Hitting" id="11"/>
+    <tableColumn name="Sheet Number" id="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
 </table>
@@ -2324,9 +2290,9 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2336,248 +2302,238 @@
     <col min="4" max="4" style="25" width="18.576428571428572" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="4" width="17.433571428571426" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="4" width="33.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="40" width="107.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="41" width="107.29071428571429" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="4" width="32.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="4" width="67.57642857142856" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="4" width="15.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="4" width="20.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="40" width="84.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="4" width="15.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="4" width="20.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="41" width="84.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="27" t="s">
-        <v>367</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>368</v>
-      </c>
-      <c r="C1" s="29" t="s">
+      <c r="A1" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>509</v>
+      </c>
+      <c r="K1" s="32" t="s">
+        <v>510</v>
+      </c>
+      <c r="L1" s="43" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="7">
+        <v>158062039</v>
+      </c>
+      <c r="B2" s="7">
+        <v>250225</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>511</v>
+      </c>
+      <c r="D2" s="9">
+        <v>45200.72275462963</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="10" t="s">
         <v>513</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="L2" s="7">
+        <v>2696962</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="7">
+        <v>158635819</v>
+      </c>
+      <c r="B3" s="7">
+        <v>60252</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>514</v>
       </c>
-      <c r="E1" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="29" t="s">
+      <c r="D3" s="9">
+        <v>45202.460856481484</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>515</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="F3" s="8"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="10" t="s">
         <v>516</v>
       </c>
-      <c r="M1" s="42" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="43">
-        <v>158062039</v>
-      </c>
-      <c r="B2" s="43">
-        <v>250225</v>
-      </c>
-      <c r="C2" s="44" t="s">
+      <c r="L3" s="7">
+        <v>2699651</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="7">
+        <v>159830825</v>
+      </c>
+      <c r="B4" s="7">
+        <v>67516</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>517</v>
       </c>
-      <c r="D2" s="45">
-        <v>45200.72275462963</v>
-      </c>
-      <c r="E2" s="44" t="s">
-        <v>178</v>
-      </c>
-      <c r="F2" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="46" t="s">
+      <c r="D4" s="9">
+        <v>45205.9002662037</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>518</v>
       </c>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" s="46" t="s">
+      <c r="F4" s="8"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="10" t="s">
         <v>519</v>
       </c>
-      <c r="M2" s="43">
-        <v>2696962</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="43">
-        <v>158635819</v>
-      </c>
-      <c r="B3" s="43">
-        <v>60252</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>520</v>
-      </c>
-      <c r="D3" s="45">
-        <v>45202.460856481484</v>
-      </c>
-      <c r="E3" s="44" t="s">
-        <v>521</v>
-      </c>
-      <c r="F3" s="44"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" s="46" t="s">
-        <v>522</v>
-      </c>
-      <c r="M3" s="43">
-        <v>2699651</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="43">
-        <v>159830825</v>
-      </c>
-      <c r="B4" s="43">
-        <v>67516</v>
-      </c>
-      <c r="C4" s="44" t="s">
-        <v>523</v>
-      </c>
-      <c r="D4" s="45">
-        <v>45205.9002662037</v>
-      </c>
-      <c r="E4" s="44" t="s">
-        <v>524</v>
-      </c>
-      <c r="F4" s="44"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" s="46" t="s">
-        <v>525</v>
-      </c>
-      <c r="M4" s="43">
+      <c r="L4" s="7">
         <v>2702597</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="43">
+      <c r="A5" s="7">
         <f>VLOOKUP($A5,'[1]088'!$A$1:$W$129,16,0)</f>
       </c>
-      <c r="B5" s="43">
+      <c r="B5" s="7">
         <f>VLOOKUP($A5,'[1]088'!$A$1:$W$129,8,0)</f>
       </c>
-      <c r="C5" s="47">
+      <c r="C5" s="44">
         <f>VLOOKUP($A5,'[1]088'!$A$1:$W$129,9,0)</f>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="9">
         <f>VLOOKUP($A5,'[1]088'!$A$1:$W$129,3,0)</f>
         <v>25569.229166666668</v>
       </c>
-      <c r="E5" s="47">
+      <c r="E5" s="44">
         <f>VLOOKUP($A5,'[1]088'!$A$1:$W$129,15,0)</f>
       </c>
-      <c r="F5" s="44"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="L5" s="46" t="s">
+      <c r="F5" s="8"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>520</v>
+      </c>
+      <c r="L5" s="7">
+        <v>2756599</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="7">
+        <v>168670930</v>
+      </c>
+      <c r="B6" s="7">
+        <v>616399</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="D6" s="9">
+        <v>45234.58391203704</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="L6" s="7">
+        <v>2756010</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="7">
+        <v>170978833</v>
+      </c>
+      <c r="B7" s="7">
+        <v>614906</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="D7" s="9">
+        <v>45242.64258101852</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="10" t="s">
         <v>526</v>
       </c>
-      <c r="M5" s="43">
-        <v>2756599</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="43">
-        <v>168670930</v>
-      </c>
-      <c r="B6" s="43">
-        <v>616399</v>
-      </c>
-      <c r="C6" s="44" t="s">
-        <v>527</v>
-      </c>
-      <c r="D6" s="45">
-        <v>45234.58391203704</v>
-      </c>
-      <c r="E6" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="46" t="s">
-        <v>528</v>
-      </c>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="L6" s="46" t="s">
-        <v>529</v>
-      </c>
-      <c r="M6" s="43">
-        <v>2756010</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="43">
-        <v>170978833</v>
-      </c>
-      <c r="B7" s="43">
-        <v>614906</v>
-      </c>
-      <c r="C7" s="44" t="s">
-        <v>530</v>
-      </c>
-      <c r="D7" s="45">
-        <v>45242.64258101852</v>
-      </c>
-      <c r="E7" s="44" t="s">
-        <v>531</v>
-      </c>
-      <c r="F7" s="44"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7" s="46" t="s">
-        <v>532</v>
-      </c>
-      <c r="M7" s="43">
+      <c r="L7" s="7">
         <v>2764921</v>
       </c>
     </row>
@@ -2603,107 +2559,107 @@
     <col min="1" max="1" style="24" width="20.005" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="24" width="13.43357142857143" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="4" width="41.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="39" width="17.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="40" width="17.433571428571426" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="4" width="20.005" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="4" width="33.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="40" width="65.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="41" width="65.005" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="4" width="33.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="40" width="56.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="41" width="56.14785714285715" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="4" width="37.005" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="40" width="43.005" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="40" width="58.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="41" width="43.005" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="41" width="58.43357142857143" customWidth="1" bestFit="1"/>
     <col min="13" max="13" style="24" width="18.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="32" t="s">
         <v>367</v>
       </c>
-      <c r="B1" s="28" t="s">
-        <v>368</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>369</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="29" t="s">
-        <v>370</v>
-      </c>
-      <c r="F1" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" s="31" t="s">
-        <v>371</v>
-      </c>
-      <c r="M1" s="28" t="s">
+      <c r="M1" s="29" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="32">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="116.25">
+      <c r="A2" s="33">
         <v>158500611</v>
       </c>
       <c r="B2" s="7">
         <v>299464</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="D2" s="33">
+        <v>368</v>
+      </c>
+      <c r="D2" s="34">
         <v>45201.84505787037</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>9</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>4</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="10"/>
       <c r="L2" s="10" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="M2" s="7">
         <v>2698663</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="32">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="33">
         <v>158396509</v>
       </c>
       <c r="B3" s="7">
         <v>299937</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="D3" s="33">
+        <v>373</v>
+      </c>
+      <c r="D3" s="34">
         <v>45201.65935185185</v>
       </c>
       <c r="E3" s="8" t="s">
@@ -2715,32 +2671,32 @@
         <v>4</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="10"/>
       <c r="L3" s="10" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="M3" s="7">
         <v>2698789</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="32">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="33">
         <v>159775973</v>
       </c>
       <c r="B4" s="7">
         <v>219726</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="D4" s="33">
+        <v>376</v>
+      </c>
+      <c r="D4" s="34">
         <v>45205.77501157407</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="10"/>
@@ -2749,23 +2705,23 @@
       <c r="J4" s="8"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="M4" s="7">
         <v>2702177</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="32">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="47.25">
+      <c r="A5" s="33">
         <v>159949734</v>
       </c>
       <c r="B5" s="7">
         <v>244092</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="D5" s="33">
+        <v>379</v>
+      </c>
+      <c r="D5" s="34">
         <v>45206.51023148148</v>
       </c>
       <c r="E5" s="8" t="s">
@@ -2775,34 +2731,34 @@
         <v>9</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="10"/>
       <c r="J5" s="8"/>
       <c r="K5" s="10"/>
       <c r="L5" s="10" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="M5" s="7">
         <v>2703595</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="32">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="33.75">
+      <c r="A6" s="33">
         <v>163816207</v>
       </c>
       <c r="B6" s="7">
         <v>216125</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="D6" s="33">
+        <v>382</v>
+      </c>
+      <c r="D6" s="34">
         <v>45217.95949074074</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="10"/>
@@ -2811,23 +2767,23 @@
       <c r="J6" s="8"/>
       <c r="K6" s="10"/>
       <c r="L6" s="10" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="M6" s="7">
         <v>2735750</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="32">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="33">
         <v>170326428</v>
       </c>
       <c r="B7" s="7">
         <v>297384</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="D7" s="33">
+        <v>385</v>
+      </c>
+      <c r="D7" s="34">
         <v>45240.41931712963</v>
       </c>
       <c r="E7" s="8" t="s">
@@ -2840,14 +2796,14 @@
       <c r="J7" s="8"/>
       <c r="K7" s="10"/>
       <c r="L7" s="10" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="M7" s="7">
         <v>2763264</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="32">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="47.25">
+      <c r="A8" s="33">
         <v>160890780</v>
       </c>
       <c r="B8" s="7">
@@ -2856,31 +2812,31 @@
       <c r="C8" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="D8" s="33">
+      <c r="D8" s="34">
         <v>45209.44274305556</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="10"/>
       <c r="J8" s="8"/>
       <c r="K8" s="10"/>
       <c r="L8" s="10" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="M8" s="7">
         <v>2707300</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="32">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="33">
         <v>164348693</v>
       </c>
       <c r="B9" s="7">
@@ -2889,11 +2845,11 @@
       <c r="C9" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="33">
+      <c r="D9" s="34">
         <v>45219.76459490741</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="10"/>
@@ -2902,27 +2858,27 @@
       <c r="J9" s="8"/>
       <c r="K9" s="10"/>
       <c r="L9" s="10" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="M9" s="7">
         <v>2738270</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="32">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="33">
         <v>164808921</v>
       </c>
       <c r="B10" s="7">
         <v>279141</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="D10" s="33">
+        <v>393</v>
+      </c>
+      <c r="D10" s="34">
         <v>45221.42836805555</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="10"/>
@@ -2931,27 +2887,27 @@
       <c r="J10" s="8"/>
       <c r="K10" s="10"/>
       <c r="L10" s="10" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="M10" s="7">
         <v>2741487</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="32">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="33">
         <v>165986040</v>
       </c>
       <c r="B11" s="7">
         <v>280885</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>400</v>
-      </c>
-      <c r="D11" s="33">
+        <v>396</v>
+      </c>
+      <c r="D11" s="34">
         <v>45224.6983912037</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="10"/>
@@ -2960,14 +2916,14 @@
       <c r="J11" s="8"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="M11" s="7">
         <v>2745715</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="32">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="33">
+      <c r="A12" s="33">
         <v>166893014</v>
       </c>
       <c r="B12" s="7">
@@ -2976,11 +2932,11 @@
       <c r="C12" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="D12" s="33">
+      <c r="D12" s="34">
         <v>45227.74283564815</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="10"/>
@@ -2989,23 +2945,23 @@
       <c r="J12" s="8"/>
       <c r="K12" s="10"/>
       <c r="L12" s="10" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="M12" s="7">
         <v>2751596</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="32">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="60">
+      <c r="A13" s="33">
         <v>162515750</v>
       </c>
       <c r="B13" s="7">
         <v>232679</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="D13" s="33">
+        <v>401</v>
+      </c>
+      <c r="D13" s="34">
         <v>45214.49728009259</v>
       </c>
       <c r="E13" s="8" t="s">
@@ -3015,34 +2971,34 @@
         <v>11</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="10"/>
       <c r="J13" s="8"/>
       <c r="K13" s="10"/>
       <c r="L13" s="10" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="M13" s="7">
         <v>2750134</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="32">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+      <c r="A14" s="33">
         <v>162740814</v>
       </c>
       <c r="B14" s="7">
         <v>291838</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="D14" s="33">
+        <v>404</v>
+      </c>
+      <c r="D14" s="34">
         <v>45214.88078703704</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="10"/>
@@ -3051,23 +3007,23 @@
       <c r="J14" s="8"/>
       <c r="K14" s="10"/>
       <c r="L14" s="10" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="M14" s="7">
         <v>2731984</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="32">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="46.5">
+      <c r="A15" s="33">
         <v>164139503</v>
       </c>
       <c r="B15" s="7">
         <v>235979</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="D15" s="33">
+        <v>407</v>
+      </c>
+      <c r="D15" s="34">
         <v>45218.93454861111</v>
       </c>
       <c r="E15" s="8" t="s">
@@ -3079,32 +3035,32 @@
         <v>4</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="J15" s="8" t="s">
         <v>5</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="M15" s="7">
         <v>2737259</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="32">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="60">
+      <c r="A16" s="33">
         <v>167193308</v>
       </c>
       <c r="B16" s="7">
         <v>233479</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="D16" s="33">
+        <v>411</v>
+      </c>
+      <c r="D16" s="34">
         <v>45228.7746875</v>
       </c>
       <c r="E16" s="8" t="s">
@@ -3117,33 +3073,33 @@
       <c r="J16" s="8"/>
       <c r="K16" s="10"/>
       <c r="L16" s="10" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="M16" s="7">
         <v>2750171</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="32">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="33">
+      <c r="A17" s="33">
         <v>167289677</v>
       </c>
       <c r="B17" s="7">
         <v>280939</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="D17" s="33">
+        <v>413</v>
+      </c>
+      <c r="D17" s="34">
         <v>45229.11177083333</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="10"/>
@@ -3151,63 +3107,63 @@
         <v>243</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="M17" s="7">
         <v>2751161</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="32">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="73.5">
+      <c r="A18" s="33">
         <v>167147932</v>
       </c>
       <c r="B18" s="7">
         <v>2385102</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>422</v>
-      </c>
-      <c r="D18" s="33">
+        <v>418</v>
+      </c>
+      <c r="D18" s="34">
         <v>45228.678773148145</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H18" s="8" t="s">
         <v>4</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="J18" s="8"/>
       <c r="K18" s="10"/>
       <c r="L18" s="10" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="M18" s="7">
         <v>2751781</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="32">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="33">
+      <c r="A19" s="33">
         <v>169123171</v>
       </c>
       <c r="B19" s="7">
         <v>220194</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>427</v>
-      </c>
-      <c r="D19" s="33">
+        <v>423</v>
+      </c>
+      <c r="D19" s="34">
         <v>45236.44332175926</v>
       </c>
       <c r="E19" s="8" t="s">
@@ -3217,34 +3173,34 @@
         <v>13</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="10"/>
       <c r="J19" s="8"/>
       <c r="K19" s="10"/>
       <c r="L19" s="10" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="M19" s="7">
         <v>2758610</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="32">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+      <c r="A20" s="33">
         <v>168665045</v>
       </c>
       <c r="B20" s="7">
         <v>233905</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>430</v>
-      </c>
-      <c r="D20" s="33">
+        <v>426</v>
+      </c>
+      <c r="D20" s="34">
         <v>45234.57263888889</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="10"/>
@@ -3253,27 +3209,27 @@
       <c r="J20" s="8"/>
       <c r="K20" s="10"/>
       <c r="L20" s="10" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="M20" s="7">
         <v>2755303</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="32">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+      <c r="A21" s="33">
         <v>167571821</v>
       </c>
       <c r="B21" s="7">
         <v>291681</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="D21" s="33">
+        <v>429</v>
+      </c>
+      <c r="D21" s="34">
         <v>45230.20581018519</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="10"/>
@@ -3282,23 +3238,23 @@
       <c r="J21" s="8"/>
       <c r="K21" s="10"/>
       <c r="L21" s="10" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="M21" s="7">
         <v>2752630</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="32">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="33">
+      <c r="A22" s="33">
         <v>167508555</v>
       </c>
       <c r="B22" s="7">
         <v>126161</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="D22" s="33">
+        <v>432</v>
+      </c>
+      <c r="D22" s="34">
         <v>45229.84936342593</v>
       </c>
       <c r="E22" s="8" t="s">
@@ -3308,30 +3264,30 @@
         <v>9</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="10"/>
       <c r="J22" s="8"/>
       <c r="K22" s="10"/>
       <c r="L22" s="10" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="M22" s="7">
         <v>2751193</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="32">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="46.5">
+      <c r="A23" s="33">
         <v>167435977</v>
       </c>
       <c r="B23" s="7">
         <v>258615</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="D23" s="33">
+        <v>435</v>
+      </c>
+      <c r="D23" s="34">
         <v>45229.683854166666</v>
       </c>
       <c r="E23" s="8" t="s">
@@ -3343,32 +3299,32 @@
         <v>4</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="J23" s="8"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="M23" s="7">
         <v>2751166</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="32">
+      <c r="A24" s="33">
         <v>164515546</v>
       </c>
       <c r="B24" s="7">
         <v>299683</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="D24" s="33">
+        <v>438</v>
+      </c>
+      <c r="D24" s="34">
         <v>45220.50518518518</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="10"/>
@@ -3376,28 +3332,28 @@
         <v>4</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="J24" s="8"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="M24" s="7">
         <v>2741272</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="32">
+      <c r="A25" s="33">
         <v>163575193</v>
       </c>
       <c r="B25" s="7">
         <v>295066</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="D25" s="33">
+        <v>442</v>
+      </c>
+      <c r="D25" s="34">
         <v>45217.501493055555</v>
       </c>
       <c r="E25" s="8" t="s">
@@ -3407,104 +3363,104 @@
         <v>13</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="H25" s="8"/>
       <c r="I25" s="10"/>
       <c r="J25" s="8"/>
       <c r="K25" s="10"/>
       <c r="L25" s="10" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="M25" s="7">
         <v>2736298</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="32">
+      <c r="A26" s="33">
         <v>163504673</v>
       </c>
       <c r="B26" s="7">
         <v>256981</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="D26" s="33">
+        <v>445</v>
+      </c>
+      <c r="D26" s="34">
         <v>45217.057534722226</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="H26" s="8" t="s">
         <v>4</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="J26" s="8"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="M26" s="7">
         <v>2736748</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="32">
+      <c r="A27" s="33">
         <v>164066742</v>
       </c>
       <c r="B27" s="7">
         <v>301225</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>453</v>
-      </c>
-      <c r="D27" s="33">
+        <v>449</v>
+      </c>
+      <c r="D27" s="34">
         <v>45218.772152777776</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="10"/>
       <c r="H27" s="8"/>
       <c r="I27" s="10"/>
       <c r="J27" s="8" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="M27" s="7">
         <v>2737106</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="32">
+      <c r="A28" s="33">
         <v>158177698</v>
       </c>
       <c r="B28" s="7">
         <v>251341</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="D28" s="33">
+        <v>454</v>
+      </c>
+      <c r="D28" s="34">
         <v>45200.92230324074</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="10"/>
@@ -3513,27 +3469,27 @@
       <c r="J28" s="8"/>
       <c r="K28" s="10"/>
       <c r="L28" s="10" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="M28" s="7">
         <v>2697774</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="32">
+      <c r="A29" s="33">
         <v>158092272</v>
       </c>
       <c r="B29" s="7">
         <v>286087</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>461</v>
-      </c>
-      <c r="D29" s="33">
+        <v>457</v>
+      </c>
+      <c r="D29" s="34">
         <v>45200.76689814815</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="10"/>
@@ -3542,60 +3498,60 @@
       <c r="J29" s="8"/>
       <c r="K29" s="10"/>
       <c r="L29" s="10" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="M29" s="7">
         <v>2697822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="32">
+      <c r="A30" s="33">
         <v>158325721</v>
       </c>
       <c r="B30" s="7">
         <v>296369</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>464</v>
-      </c>
-      <c r="D30" s="33">
+        <v>460</v>
+      </c>
+      <c r="D30" s="34">
         <v>45201.56317129629</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H30" s="8"/>
       <c r="I30" s="10"/>
       <c r="J30" s="8"/>
       <c r="K30" s="10"/>
       <c r="L30" s="10" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="M30" s="7">
         <v>2698591</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="32">
+      <c r="A31" s="33">
         <v>158392033</v>
       </c>
       <c r="B31" s="7">
         <v>273121</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>468</v>
-      </c>
-      <c r="D31" s="33">
+        <v>464</v>
+      </c>
+      <c r="D31" s="34">
         <v>45201.65802083333</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="10"/>
@@ -3604,56 +3560,56 @@
       <c r="J31" s="8"/>
       <c r="K31" s="10"/>
       <c r="L31" s="10" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="M31" s="7">
         <v>2698598</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="32">
+      <c r="A32" s="33">
         <v>158824110</v>
       </c>
       <c r="B32" s="7">
         <v>297688</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="D32" s="33">
+        <v>467</v>
+      </c>
+      <c r="D32" s="34">
         <v>45202.79143518519</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F32" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H32" s="8"/>
       <c r="I32" s="10"/>
       <c r="J32" s="8"/>
       <c r="K32" s="10"/>
       <c r="L32" s="10" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="M32" s="7">
         <v>2699292</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="32">
+      <c r="A33" s="33">
         <v>159501535</v>
       </c>
       <c r="B33" s="7">
         <v>55945</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>475</v>
-      </c>
-      <c r="D33" s="33">
+        <v>471</v>
+      </c>
+      <c r="D33" s="34">
         <v>45204.79414351852</v>
       </c>
       <c r="E33" s="8" t="s">
@@ -3665,28 +3621,28 @@
         <v>4</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="J33" s="8"/>
       <c r="K33" s="10"/>
       <c r="L33" s="10" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="M33" s="7">
         <v>2701738</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="32">
+      <c r="A34" s="33">
         <v>160131922</v>
       </c>
       <c r="B34" s="7">
         <v>289335</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>478</v>
-      </c>
-      <c r="D34" s="33">
+        <v>474</v>
+      </c>
+      <c r="D34" s="34">
         <v>45206.84334490741</v>
       </c>
       <c r="E34" s="8" t="s">
@@ -3698,65 +3654,65 @@
         <v>4</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="J34" s="8"/>
       <c r="K34" s="10"/>
       <c r="L34" s="10" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="M34" s="7">
         <v>2703002</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="32">
+      <c r="A35" s="33">
         <v>165484128</v>
       </c>
       <c r="B35" s="7">
         <v>281015</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>481</v>
-      </c>
-      <c r="D35" s="33">
+        <v>477</v>
+      </c>
+      <c r="D35" s="34">
         <v>45223.385416666664</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="F35" s="8" t="s">
         <v>9</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="H35" s="8"/>
       <c r="I35" s="10"/>
       <c r="J35" s="8"/>
       <c r="K35" s="10"/>
       <c r="L35" s="10" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="M35" s="7">
         <v>2742395</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="32">
+      <c r="A36" s="33">
         <v>168660717</v>
       </c>
       <c r="B36" s="7">
         <v>178738</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>485</v>
-      </c>
-      <c r="D36" s="33">
+        <v>481</v>
+      </c>
+      <c r="D36" s="34">
         <v>45234.55861111111</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="10"/>
@@ -3765,27 +3721,27 @@
       <c r="J36" s="8"/>
       <c r="K36" s="10"/>
       <c r="L36" s="10" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="M36" s="7">
         <v>2755620</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="32">
+      <c r="A37" s="33">
         <v>170392858</v>
       </c>
       <c r="B37" s="7">
         <v>187490</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>488</v>
-      </c>
-      <c r="D37" s="33">
+        <v>484</v>
+      </c>
+      <c r="D37" s="34">
         <v>45240.62064814815</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="10"/>
@@ -3794,27 +3750,27 @@
       <c r="J37" s="8"/>
       <c r="K37" s="10"/>
       <c r="L37" s="10" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="M37" s="7">
         <v>2763142</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="32">
+      <c r="A38" s="33">
         <v>171064917</v>
       </c>
       <c r="B38" s="7">
         <v>241652</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>491</v>
-      </c>
-      <c r="D38" s="33">
+        <v>487</v>
+      </c>
+      <c r="D38" s="34">
         <v>45242.812418981484</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="10"/>
@@ -3823,27 +3779,27 @@
       <c r="J38" s="8"/>
       <c r="K38" s="10"/>
       <c r="L38" s="10" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="M38" s="7">
         <v>2764441</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="32">
+      <c r="A39" s="33">
         <v>160374505</v>
       </c>
       <c r="B39" s="7">
         <v>288837</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>494</v>
-      </c>
-      <c r="D39" s="33">
+        <v>490</v>
+      </c>
+      <c r="D39" s="34">
         <v>45207.673842592594</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F39" s="8"/>
       <c r="G39" s="10"/>
@@ -3852,23 +3808,23 @@
       <c r="J39" s="8"/>
       <c r="K39" s="10"/>
       <c r="L39" s="10" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="M39" s="7">
         <v>2705191</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="32">
+      <c r="A40" s="33">
         <v>161436608</v>
       </c>
       <c r="B40" s="7">
         <v>1051725</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>497</v>
-      </c>
-      <c r="D40" s="33">
+        <v>493</v>
+      </c>
+      <c r="D40" s="34">
         <v>45210.91118055556</v>
       </c>
       <c r="E40" s="8" t="s">
@@ -3881,23 +3837,23 @@
       <c r="J40" s="8"/>
       <c r="K40" s="10"/>
       <c r="L40" s="10" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="M40" s="7">
         <v>2708068</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="32">
+      <c r="A41" s="33">
         <v>170098307</v>
       </c>
       <c r="B41" s="7">
         <v>206496</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>499</v>
-      </c>
-      <c r="D41" s="33">
+        <v>495</v>
+      </c>
+      <c r="D41" s="34">
         <v>45239.5646412037</v>
       </c>
       <c r="E41" s="8" t="s">
@@ -3910,23 +3866,23 @@
       <c r="J41" s="8"/>
       <c r="K41" s="10"/>
       <c r="L41" s="10" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="M41" s="7">
         <v>2761885</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="32">
+      <c r="A42" s="33">
         <v>159467724</v>
       </c>
       <c r="B42" s="7">
         <v>219643</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>501</v>
-      </c>
-      <c r="D42" s="33">
+        <v>497</v>
+      </c>
+      <c r="D42" s="34">
         <v>45204.72971064815</v>
       </c>
       <c r="E42" s="8" t="s">
@@ -3938,80 +3894,80 @@
         <v>4</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="J42" s="8"/>
       <c r="K42" s="10"/>
       <c r="L42" s="10" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="M42" s="7">
         <v>2701590</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="34">
+      <c r="A43" s="35">
         <v>168134424</v>
       </c>
-      <c r="B43" s="35">
+      <c r="B43" s="36">
         <v>275794</v>
       </c>
-      <c r="C43" s="36" t="s">
-        <v>504</v>
-      </c>
-      <c r="D43" s="37">
+      <c r="C43" s="37" t="s">
+        <v>500</v>
+      </c>
+      <c r="D43" s="38">
         <v>45232.401238425926</v>
       </c>
-      <c r="E43" s="36" t="s">
-        <v>505</v>
-      </c>
-      <c r="F43" s="36"/>
-      <c r="G43" s="38"/>
+      <c r="E43" s="37" t="s">
+        <v>501</v>
+      </c>
+      <c r="F43" s="37"/>
+      <c r="G43" s="39"/>
       <c r="H43" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I43" s="38" t="s">
+      <c r="I43" s="39" t="s">
+        <v>502</v>
+      </c>
+      <c r="J43" s="37"/>
+      <c r="K43" s="39"/>
+      <c r="L43" s="39" t="s">
+        <v>503</v>
+      </c>
+      <c r="M43" s="36">
+        <v>2754235</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+      <c r="A44" s="35">
+        <v>170442589</v>
+      </c>
+      <c r="B44" s="36">
+        <v>214196</v>
+      </c>
+      <c r="C44" s="37" t="s">
+        <v>504</v>
+      </c>
+      <c r="D44" s="38">
+        <v>45240.73090277778</v>
+      </c>
+      <c r="E44" s="37" t="s">
+        <v>505</v>
+      </c>
+      <c r="F44" s="39" t="s">
         <v>506</v>
       </c>
-      <c r="J43" s="36"/>
-      <c r="K43" s="38"/>
-      <c r="L43" s="38" t="s">
+      <c r="G44" s="39" t="s">
         <v>507</v>
       </c>
-      <c r="M43" s="35">
-        <v>2754235</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="34">
-        <v>170442589</v>
-      </c>
-      <c r="B44" s="35">
-        <v>214196</v>
-      </c>
-      <c r="C44" s="36" t="s">
+      <c r="H44" s="37"/>
+      <c r="I44" s="39"/>
+      <c r="J44" s="37"/>
+      <c r="K44" s="39"/>
+      <c r="L44" s="39" t="s">
         <v>508</v>
       </c>
-      <c r="D44" s="37">
-        <v>45240.73090277778</v>
-      </c>
-      <c r="E44" s="36" t="s">
-        <v>509</v>
-      </c>
-      <c r="F44" s="38" t="s">
-        <v>510</v>
-      </c>
-      <c r="G44" s="38" t="s">
-        <v>511</v>
-      </c>
-      <c r="H44" s="36"/>
-      <c r="I44" s="38"/>
-      <c r="J44" s="36"/>
-      <c r="K44" s="38"/>
-      <c r="L44" s="38" t="s">
-        <v>512</v>
-      </c>
-      <c r="M44" s="35">
+      <c r="M44" s="36">
         <v>2762888</v>
       </c>
     </row>
@@ -4030,7 +3986,7 @@
   </sheetPr>
   <dimension ref="A1:N139"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4040,17 +3996,17 @@
     <col min="4" max="4" style="25" width="17.433571428571426" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="4" width="20.005" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="24" width="18.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="15.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="5" width="39.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="26" width="15.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="26" width="39.57642857142857" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="24" width="34.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="26" width="54.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="27" width="54.14785714285715" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="23" width="57.005" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="26" width="53.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="5" width="36.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="26" width="30.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="27" width="53.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="26" width="36.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="27" width="30.719285714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
@@ -4094,7 +4050,7 @@
         <v>31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="11">
         <v>158308797</v>
       </c>
@@ -4126,7 +4082,7 @@
       <c r="M2" s="13"/>
       <c r="N2" s="15"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="11">
         <v>158836735</v>
       </c>
@@ -4158,7 +4114,7 @@
       <c r="M3" s="13"/>
       <c r="N3" s="15"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="11">
         <v>159385897</v>
       </c>
@@ -4190,7 +4146,7 @@
       <c r="M4" s="13"/>
       <c r="N4" s="15"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="11">
         <v>159831412</v>
       </c>
@@ -4222,7 +4178,7 @@
       <c r="M5" s="13"/>
       <c r="N5" s="15"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="45.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="47.25">
       <c r="A6" s="11">
         <v>160260415</v>
       </c>
@@ -4262,7 +4218,7 @@
       <c r="M6" s="13"/>
       <c r="N6" s="15"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="32.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="33.75">
       <c r="A7" s="11">
         <v>160675031</v>
       </c>
@@ -4298,7 +4254,7 @@
         <v>52</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="11">
         <v>160588653</v>
       </c>
@@ -4330,7 +4286,7 @@
       <c r="M8" s="13"/>
       <c r="N8" s="15"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="58.5">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="60">
       <c r="A9" s="11">
         <v>161025753</v>
       </c>
@@ -4366,7 +4322,7 @@
       <c r="M9" s="13"/>
       <c r="N9" s="15"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="84.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="87">
       <c r="A10" s="11">
         <v>161316483</v>
       </c>
@@ -4402,7 +4358,7 @@
       <c r="M10" s="13"/>
       <c r="N10" s="15"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="11">
         <v>161560999</v>
       </c>
@@ -4434,7 +4390,7 @@
       <c r="M11" s="13"/>
       <c r="N11" s="15"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="11">
         <v>162562761</v>
       </c>
@@ -4470,7 +4426,7 @@
       <c r="M12" s="13"/>
       <c r="N12" s="15"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="11">
         <v>162801837</v>
       </c>
@@ -4502,7 +4458,7 @@
       <c r="M13" s="13"/>
       <c r="N13" s="15"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="11">
         <v>163067131</v>
       </c>
@@ -4534,7 +4490,7 @@
       <c r="M14" s="13"/>
       <c r="N14" s="15"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="11">
         <v>163433020</v>
       </c>
@@ -4566,7 +4522,7 @@
       <c r="M15" s="13"/>
       <c r="N15" s="15"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="11">
         <v>163442594</v>
       </c>
